--- a/3.results/model_selection/macareux_moine_HR_1_test_log_quad.xlsx
+++ b/3.results/model_selection/macareux_moine_HR_1_test_log_quad.xlsx
@@ -817,16 +817,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.066</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>135.6</v>
+        <v>132.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>533</v>
@@ -852,22 +852,22 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.053</v>
+        <v>1.215</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>212.6</v>
+        <v>81.1</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.49</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>512</v>
@@ -900,7 +900,7 @@
         <v>0.92</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>512</v>
@@ -917,12 +917,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>0.78</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5">
@@ -936,10 +936,10 @@
         <v>254.2</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>513</v>
@@ -1098,16 +1098,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.066</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>135.6</v>
+        <v>132.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>533</v>
@@ -1133,10 +1133,10 @@
         <v>97</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.051</v>
+        <v>1.002</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>310</v>
+        <v>265.2</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.94</v>
@@ -1198,12 +1198,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>-2.41</v>
+        <v>-2.52</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>0.69</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -1379,16 +1379,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.066</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>135.6</v>
+        <v>132.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>533</v>
@@ -1414,10 +1414,10 @@
         <v>106</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.027</v>
+        <v>1.022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>478.8</v>
+        <v>426.8</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.96</v>
@@ -1432,10 +1432,10 @@
         <v>502</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="n">
@@ -1459,7 +1459,7 @@
         <v>419.9</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.51</v>
@@ -1479,12 +1479,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>-3.64</v>
+        <v>-3.62</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="5">
@@ -1498,10 +1498,10 @@
         <v>457.3</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>502</v>
@@ -1660,16 +1660,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.066</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>135.6</v>
+        <v>132.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>533</v>
@@ -1695,16 +1695,16 @@
         <v>115</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.039</v>
+        <v>1.01</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>147.8</v>
+        <v>127.1</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>533</v>
@@ -1713,10 +1713,10 @@
         <v>533</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="n">
@@ -1743,7 +1743,7 @@
         <v>0.93</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>534</v>
@@ -1760,12 +1760,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
@@ -1779,7 +1779,7 @@
         <v>95.3</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0.5</v>
@@ -1791,10 +1791,10 @@
         <v>534</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>0.12</v>
@@ -1941,16 +1941,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.066</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>135.6</v>
+        <v>132.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>533</v>
@@ -1976,16 +1976,16 @@
         <v>124</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.061</v>
+        <v>1.178</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>128.5</v>
+        <v>109.6</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.93</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>533</v>
@@ -1994,10 +1994,10 @@
         <v>533</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="n">
@@ -2024,7 +2024,7 @@
         <v>0.93</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>533</v>
@@ -2033,20 +2033,20 @@
         <v>533</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5">
@@ -2222,16 +2222,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.066</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>135.6</v>
+        <v>132.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>533</v>
@@ -2257,16 +2257,16 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.076</v>
+        <v>1.069</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>163.8</v>
+        <v>135.4</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.92</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>516</v>
@@ -2302,10 +2302,10 @@
         <v>176.4</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>512</v>
@@ -2314,20 +2314,20 @@
         <v>512</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>-3.12</v>
+        <v>-3.13</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -2422,7 +2422,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>H2&lt;518</formula>
+      <formula>H2&lt;519</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
@@ -2435,7 +2435,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>I2&lt;518</formula>
+      <formula>I2&lt;519</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2503,16 +2503,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.066</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>135.6</v>
+        <v>132.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>533</v>
@@ -2538,22 +2538,22 @@
         <v>34</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.891</v>
+        <v>1.022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>5.1</v>
+        <v>307.1</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.93</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>522</v>
@@ -2583,7 +2583,7 @@
         <v>240.3</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.5</v>
@@ -2595,20 +2595,20 @@
         <v>519</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>0.37</v>
+        <v>-3.15</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>3.03</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5">
@@ -2622,10 +2622,10 @@
         <v>325.2</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>520</v>
@@ -2634,10 +2634,10 @@
         <v>520</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>-1.87</v>
@@ -2703,7 +2703,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>H2&lt;525</formula>
+      <formula>H2&lt;522</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
@@ -2716,7 +2716,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>I2&lt;525</formula>
+      <formula>I2&lt;522</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2784,16 +2784,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.066</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>135.6</v>
+        <v>132.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>533</v>
@@ -2822,19 +2822,19 @@
         <v>1.02</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>256.2</v>
+        <v>295.4</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>509</v>
@@ -2867,7 +2867,7 @@
         <v>0.93</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>509</v>
@@ -2884,12 +2884,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>3.19</v>
+        <v>3.31</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -3065,16 +3065,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.066</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>135.6</v>
+        <v>132.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>533</v>
@@ -3100,22 +3100,22 @@
         <v>52</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.004</v>
+        <v>1.055</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>277.9</v>
+        <v>287.2</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>507</v>
@@ -3148,7 +3148,7 @@
         <v>0.93</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>507</v>
@@ -3165,12 +3165,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -3187,7 +3187,7 @@
         <v>0.93</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>508</v>
@@ -3346,16 +3346,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.066</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>135.6</v>
+        <v>132.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>533</v>
@@ -3381,22 +3381,22 @@
         <v>61</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.06</v>
+        <v>1.192</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>205.2</v>
+        <v>186.3</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.93</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>520</v>
@@ -3429,7 +3429,7 @@
         <v>0.93</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>520</v>
@@ -3446,7 +3446,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>-1.85</v>
+        <v>-1.84</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -3468,7 +3468,7 @@
         <v>0.93</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>521</v>
@@ -3627,16 +3627,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.066</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>135.6</v>
+        <v>132.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>533</v>
@@ -3662,16 +3662,16 @@
         <v>70</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>118.3</v>
+        <v>153.6</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>532</v>
@@ -3691,7 +3691,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -3908,16 +3908,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.066</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>135.6</v>
+        <v>132.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>533</v>
@@ -3943,16 +3943,16 @@
         <v>79</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.035</v>
+        <v>1.024</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>337.5</v>
+        <v>330.6</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.96</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>498</v>
@@ -3961,18 +3961,18 @@
         <v>498</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>3.21</v>
+        <v>3.15</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -3988,7 +3988,7 @@
         <v>266.2</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.51</v>
@@ -4189,16 +4189,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.066</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>135.6</v>
+        <v>132.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>533</v>
@@ -4224,10 +4224,10 @@
         <v>88</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.029</v>
+        <v>1.063</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>112.2</v>
+        <v>126.1</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.94</v>
@@ -4236,10 +4236,10 @@
         <v>0.51</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>527</v>
@@ -4248,12 +4248,12 @@
         <v>527</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -4269,7 +4269,7 @@
         <v>199.5</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.5</v>
@@ -4281,10 +4281,10 @@
         <v>531</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>0.78</v>
@@ -4315,7 +4315,7 @@
         <v>0.94</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>508</v>
